--- a/Examples/Data/Storage/The butterfly effect.xlsx
+++ b/Examples/Data/Storage/The butterfly effect.xlsx
@@ -15,7 +15,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF6A6A6A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Butterfly Effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: This effect grants the power to cause a hurricane in China to a butterfly flapping its wings in New Mexico. </t>
+    </r>
+  </si>
+  <si>
+    <t>a new row</t>
+  </si>
+  <si>
+    <t>third row</t>
+  </si>
+  <si>
+    <t>Its column B</t>
+  </si>
+  <si>
+    <t>Its column C</t>
+  </si>
+  <si>
+    <t>3rd row</t>
+  </si>
+  <si>
+    <t>It was coined by Edward</t>
+  </si>
+  <si>
+    <t>Coined by Edward</t>
+  </si>
   <si>
     <r>
       <t>In chaos </t>
@@ -47,7 +92,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>butterfly effect</t>
+      <t xml:space="preserve">butterfly </t>
     </r>
     <r>
       <rPr>
@@ -56,47 +101,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> is the sensitive dependence on initial conditions in which a small change in one state of a deterministic nonlinear system can result in large differences in a later state.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF6A6A6A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Butterfly Effect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This effect grants the power to cause a hurricane in China to a butterfly flapping its wings in New Mexico. </t>
-    </r>
-  </si>
-  <si>
-    <t>a new row</t>
-  </si>
-  <si>
-    <t>third row</t>
-  </si>
-  <si>
-    <t>Its column B</t>
-  </si>
-  <si>
-    <t>Its column C</t>
-  </si>
-  <si>
-    <t>3rd row</t>
+      <t>effect is the sensitive dependence on initial conditions in which a small change in one state of a deterministic nonlinear system can result in large differences in a later state.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -466,11 +472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -479,31 +483,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -514,15 +523,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
